--- a/Steven Bernal.xlsx
+++ b/Steven Bernal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\No_Entrar\IngenieriaSistemas\Analitica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B60683-10C2-4252-8AC3-698D5B4E71F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C3E74-821B-44B0-8ED9-D242E72833D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{8B0B5945-A3FB-49F1-9204-D883FAACE64B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B0B5945-A3FB-49F1-9204-D883FAACE64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Taller Calculos de Metricas2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="25">
   <si>
     <t>Esporádico</t>
   </si>
@@ -1038,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D25AF0D-55B1-4F02-A8C4-84E81C8D3515}">
-  <dimension ref="B3:J35"/>
+  <dimension ref="B3:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1529,7 @@
         <v>0.1428571428571429</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -1537,8 +1537,19 @@
         <f>(C5+D6+E7+F8)/G9</f>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <f>M37/(M37+M38)</f>
+        <v>0.72648083623693382</v>
+      </c>
+      <c r="L33">
+        <f>Q37/(Q37+Q38)</f>
+        <v>0.86875000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -1546,14 +1557,152 @@
         <f>(C9/G9*G5/G9)+(D9/G9*G6/G9)+(E9/G9*G7/G9)+(F9/G9*G8/G9)</f>
         <v>0.30228837096968963</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <f>M37/(M37+N37)</f>
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="L34">
+        <f>Q37/(Q37+R37)</f>
+        <v>0.72648083623693382</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35">
         <f>(C33-C34)/(1-C34)</f>
         <v>0.7952490156202674</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35">
+        <f>(2*J33*J34)/(J33+J34)</f>
+        <v>0.79127134724857684</v>
+      </c>
+      <c r="L35">
+        <f>(2*L33*L34)/(L33+L34)</f>
+        <v>0.79127134724857684</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <f>1-J38</f>
+        <v>0.27568922305764409</v>
+      </c>
+      <c r="L37">
+        <f>1-L38</f>
+        <v>0.27568922305764409</v>
+      </c>
+      <c r="M37">
+        <v>417</v>
+      </c>
+      <c r="N37">
+        <v>63</v>
+      </c>
+      <c r="O37">
+        <f>SUM(M37:N37)</f>
+        <v>480</v>
+      </c>
+      <c r="Q37">
+        <v>417</v>
+      </c>
+      <c r="R37">
+        <v>157</v>
+      </c>
+      <c r="S37">
+        <f>SUM(Q37:R37)</f>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <f>(M37+N38)/O39</f>
+        <v>0.72431077694235591</v>
+      </c>
+      <c r="L38">
+        <f>(Q37+R38)/S39</f>
+        <v>0.72431077694235591</v>
+      </c>
+      <c r="M38">
+        <v>157</v>
+      </c>
+      <c r="N38">
+        <v>161</v>
+      </c>
+      <c r="O38">
+        <f>SUM(M38:N38)</f>
+        <v>318</v>
+      </c>
+      <c r="Q38">
+        <v>63</v>
+      </c>
+      <c r="R38">
+        <v>161</v>
+      </c>
+      <c r="S38">
+        <f>SUM(Q38:R38)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <f>(M39/O39*O37/O39)+(N39/O39*O38/O39)</f>
+        <v>0.54451919271863869</v>
+      </c>
+      <c r="L39">
+        <f>(Q39/S39*S37/S39)+(R39/S39*S38/S39)</f>
+        <v>0.54451919271863869</v>
+      </c>
+      <c r="M39">
+        <f>SUM(M37:M38)</f>
+        <v>574</v>
+      </c>
+      <c r="N39">
+        <f>SUM(N37:N38)</f>
+        <v>224</v>
+      </c>
+      <c r="O39">
+        <f>SUM(O37:O38)</f>
+        <v>798</v>
+      </c>
+      <c r="Q39">
+        <f>SUM(Q37:Q38)</f>
+        <v>480</v>
+      </c>
+      <c r="R39">
+        <f>SUM(R37:R38)</f>
+        <v>318</v>
+      </c>
+      <c r="S39">
+        <f>SUM(S37:S38)</f>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <f>(J38-J39)/(1-J39)</f>
+        <v>0.39472922096727486</v>
+      </c>
+      <c r="L40">
+        <f>(L38-L39)/(1-L39)</f>
+        <v>0.39472922096727486</v>
       </c>
     </row>
   </sheetData>
